--- a/MarsQA-1/SpecflowTests/Data/Mars.xlsx
+++ b/MarsQA-1/SpecflowTests/Data/Mars.xlsx
@@ -7,6 +7,11 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgeSxXb6/XvLB9MOqvVBgSEwYN4Lw=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -19,10 +24,10 @@
     <t>password</t>
   </si>
   <si>
-    <t>mvpstudio.qa@gmail.com</t>
+    <t>oliverani333@gmail.com</t>
   </si>
   <si>
-    <t>SydneyQa2018</t>
+    <t>uCnfmv6GfiwiQ5Y</t>
   </si>
 </sst>
 </file>
@@ -38,6 +43,7 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -63,17 +69,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -292,8 +295,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="48.25"/>
-    <col customWidth="1" min="2" max="2" width="12.75"/>
-    <col customWidth="1" min="3" max="26" width="7.63"/>
+    <col customWidth="1" min="2" max="2" width="20.63"/>
+    <col customWidth="1" min="3" max="6" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -314,7 +317,7 @@
     </row>
     <row r="3">
       <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="3"/>
